--- a/Data/Other possible data/Controls - competition models_15022024.xlsx
+++ b/Data/Other possible data/Controls - competition models_15022024.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xolanisibande/Papers/UP_paper/UP_Paper/Data/Other possible data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u11134519\Documents\SARB Research\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987CB643-77C9-DD41-ABF1-B82CEDB67B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28860" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5600"/>
   </bookViews>
   <sheets>
     <sheet name="Policy rate" sheetId="1" r:id="rId1"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +95,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,19 +375,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,1156 +395,1444 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>39448</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>39479</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>39508</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>39539</v>
+      </c>
+      <c r="B5">
+        <v>11.30952380952381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>39569</v>
+      </c>
+      <c r="B6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>39600</v>
+      </c>
+      <c r="B7">
+        <v>11.785714285714286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>39630</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>39661</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>39692</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>39722</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>39753</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>39783</v>
+      </c>
+      <c r="B13">
+        <v>11.708333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>39814</v>
+      </c>
+      <c r="B14">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>39845</v>
+      </c>
+      <c r="B15">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>39873</v>
+      </c>
+      <c r="B16">
+        <v>10.272727272727273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>39904</v>
+      </c>
+      <c r="B17">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>39934</v>
+      </c>
+      <c r="B18">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>39965</v>
+      </c>
+      <c r="B19">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>39995</v>
+      </c>
+      <c r="B20">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>40026</v>
+      </c>
+      <c r="B21">
+        <v>7.1956521739130439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>40057</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>40087</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>40118</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>40148</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>40179</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>40210</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>40238</v>
+      </c>
+      <c r="B28">
+        <v>6.9038461538461542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>40269</v>
+      </c>
+      <c r="B29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>40299</v>
+      </c>
+      <c r="B30">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>40330</v>
+      </c>
+      <c r="B31">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>40360</v>
+      </c>
+      <c r="B32">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>40391</v>
+      </c>
+      <c r="B33">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>40422</v>
+      </c>
+      <c r="B34">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>40452</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>40483</v>
+      </c>
+      <c r="B36">
+        <v>5.8076923076923075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>40513</v>
+      </c>
+      <c r="B37">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>40544</v>
+      </c>
+      <c r="B38">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>40575</v>
+      </c>
+      <c r="B39">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>40603</v>
+      </c>
+      <c r="B40">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>40634</v>
+      </c>
+      <c r="B41">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>40664</v>
+      </c>
+      <c r="B42">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>40695</v>
+      </c>
+      <c r="B43">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>40725</v>
+      </c>
+      <c r="B44">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>40756</v>
+      </c>
+      <c r="B45">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>40787</v>
+      </c>
+      <c r="B46">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>40817</v>
+      </c>
+      <c r="B47">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>40848</v>
+      </c>
+      <c r="B48">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>40878</v>
+      </c>
+      <c r="B49">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>40939</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B50" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>40968</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B51" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
         <v>40998</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B52" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>41029</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B53" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
         <v>41060</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B54" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
         <v>41089</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B55" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
         <v>41121</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B56" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
         <v>41152</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B57" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
         <v>41180</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B58" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
         <v>41213</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B59" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
         <v>41243</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B60" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
         <v>41274</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B61" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
         <v>41305</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B62" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
         <v>41333</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B63" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
         <v>41362</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B64" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
         <v>41394</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B65" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
         <v>41425</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B66" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
         <v>41453</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B67" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
         <v>41486</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B68" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
         <v>41516</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B69" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
         <v>41547</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B70" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
         <v>41578</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B71" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
         <v>41607</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B72" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
         <v>41639</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B73" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
         <v>41670</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B74" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
         <v>41698</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B75" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
         <v>41729</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B76" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
         <v>41759</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B77" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
         <v>41789</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B78" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
         <v>41820</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B79" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
         <v>41851</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B80" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
         <v>41880</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B81" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
         <v>41912</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B82" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
         <v>41943</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B83" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
         <v>41971</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B84" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
         <v>42004</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B85" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
         <v>42034</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B86" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
         <v>42062</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B87" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
         <v>42094</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B88" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
         <v>42124</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B89" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
         <v>42153</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B90" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
         <v>42185</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B91" s="1">
         <v>5.75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
         <v>42216</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B92" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
         <v>42247</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B93" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
         <v>42277</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B94" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
         <v>42307</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B95" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
         <v>42338</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B96" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
         <v>42369</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B97" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
         <v>42398</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B98" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
         <v>42429</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B99" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
         <v>42460</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B100" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
         <v>42489</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B101" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
         <v>42521</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B102" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
         <v>42551</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B103" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
         <v>42580</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B104" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
         <v>42613</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B105" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
         <v>42643</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B106" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
         <v>42674</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B107" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
         <v>42704</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B108" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
         <v>42734</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B109" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
         <v>42766</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B110" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
         <v>42794</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B111" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
         <v>42825</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B112" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
         <v>42853</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B113" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
         <v>42886</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B114" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
         <v>42916</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B115" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
         <v>42947</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B116" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
         <v>42978</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B117" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
         <v>43007</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B118" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
         <v>43039</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B119" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
         <v>43069</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B120" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
         <v>43098</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B121" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
         <v>43131</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B122" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
         <v>43159</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B123" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
         <v>43189</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B124" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
         <v>43220</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B125" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
         <v>43251</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B126" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
         <v>43280</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B127" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
         <v>43312</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B128" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
         <v>43343</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B129" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
         <v>43371</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B130" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
         <v>43404</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B131" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
         <v>43434</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B132" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
         <v>43465</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B133" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
         <v>43496</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B134" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
         <v>43524</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B135" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
         <v>43553</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B136" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
         <v>43585</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B137" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
         <v>43616</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B138" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
         <v>43644</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B139" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
         <v>43677</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B140" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
         <v>43707</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B141" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
         <v>43738</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B142" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
         <v>43769</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B143" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
         <v>43798</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B144" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="2">
         <v>43830</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B145" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
         <v>43861</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B146" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
         <v>43889</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B147" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
         <v>43921</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B148" s="1">
         <v>5.25</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="2">
         <v>43951</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B149" s="1">
         <v>4.25</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="2">
         <v>43980</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B150" s="1">
         <v>3.75</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="2">
         <v>44012</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B151" s="1">
         <v>3.75</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="2">
         <v>44043</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B152" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
         <v>44074</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B153" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
         <v>44104</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B154" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
         <v>44134</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B155" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
         <v>44165</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B156" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="2">
         <v>44196</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B157" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="2">
         <v>44225</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B158" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="2">
         <v>44253</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B159" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="2">
         <v>44286</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B160" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="2">
         <v>44316</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B161" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="2">
         <v>44347</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B162" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="2">
         <v>44377</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B163" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="2">
         <v>44407</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B164" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="2">
         <v>44439</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B165" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="2">
         <v>44469</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B166" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="2">
         <v>44498</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B167" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="2">
         <v>44530</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B168" s="1">
         <v>3.75</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
         <v>44561</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B169" s="1">
         <v>3.75</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
         <v>44592</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B170" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="2">
         <v>44620</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B171" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="2">
         <v>44651</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B172" s="1">
         <v>4.25</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="2">
         <v>44680</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B173" s="1">
         <v>4.25</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="2">
         <v>44712</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B174" s="1">
         <v>4.75</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="2">
         <v>44742</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B175" s="1">
         <v>4.75</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="2">
         <v>44771</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B176" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="2">
         <v>44804</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B177" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="2">
         <v>44834</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B178" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="2">
         <v>44865</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B179" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="2">
         <v>44895</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B180" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="2">
         <v>44925</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B181" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
-        <v>44957</v>
-      </c>
-      <c r="B134" s="1">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
-        <v>44985</v>
-      </c>
-      <c r="B135" s="1">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
-        <v>45016</v>
-      </c>
-      <c r="B136" s="1">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
-        <v>45046</v>
-      </c>
-      <c r="B137" s="1">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
-        <v>45077</v>
-      </c>
-      <c r="B138" s="1">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
-        <v>45107</v>
-      </c>
-      <c r="B139" s="1">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
-        <v>45138</v>
-      </c>
-      <c r="B140" s="1">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
-        <v>45169</v>
-      </c>
-      <c r="B141" s="1">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
-        <v>45199</v>
-      </c>
-      <c r="B142" s="1">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
-        <v>45230</v>
-      </c>
-      <c r="B143" s="1">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
-        <v>45260</v>
-      </c>
-      <c r="B144" s="1">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
-        <v>45291</v>
-      </c>
-      <c r="B145" s="1">
-        <v>8.25</v>
       </c>
     </row>
   </sheetData>
@@ -1554,20 +1841,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1575,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>40998</v>
       </c>
@@ -1583,7 +1870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>41089</v>
       </c>
@@ -1591,7 +1878,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>41180</v>
       </c>
@@ -1599,7 +1886,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>41274</v>
       </c>
@@ -1607,7 +1894,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>41362</v>
       </c>
@@ -1615,7 +1902,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>41453</v>
       </c>
@@ -1623,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>41547</v>
       </c>
@@ -1631,7 +1918,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>41639</v>
       </c>
@@ -1639,7 +1926,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>41729</v>
       </c>
@@ -1647,7 +1934,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>41820</v>
       </c>
@@ -1655,7 +1942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>41912</v>
       </c>
@@ -1663,7 +1950,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>42004</v>
       </c>
@@ -1671,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>42094</v>
       </c>
@@ -1679,7 +1966,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>42185</v>
       </c>
@@ -1687,7 +1974,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>42277</v>
       </c>
@@ -1695,7 +1982,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>42369</v>
       </c>
@@ -1703,7 +1990,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>42460</v>
       </c>
@@ -1711,7 +1998,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>42551</v>
       </c>
@@ -1719,7 +2006,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>42643</v>
       </c>
@@ -1727,7 +2014,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>42734</v>
       </c>
@@ -1735,7 +2022,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>42825</v>
       </c>
@@ -1743,7 +2030,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>42916</v>
       </c>
@@ -1751,7 +2038,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43007</v>
       </c>
@@ -1759,7 +2046,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43098</v>
       </c>
@@ -1767,7 +2054,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43189</v>
       </c>
@@ -1775,7 +2062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43280</v>
       </c>
@@ -1783,7 +2070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43371</v>
       </c>
@@ -1791,7 +2078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43465</v>
       </c>
@@ -1799,7 +2086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43553</v>
       </c>
@@ -1807,7 +2094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43644</v>
       </c>
@@ -1815,7 +2102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43738</v>
       </c>
@@ -1823,7 +2110,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43830</v>
       </c>
@@ -1831,7 +2118,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43921</v>
       </c>
@@ -1839,7 +2126,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44012</v>
       </c>
@@ -1847,7 +2134,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44104</v>
       </c>
@@ -1855,7 +2142,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>44196</v>
       </c>
@@ -1863,7 +2150,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>44286</v>
       </c>
@@ -1871,7 +2158,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>44377</v>
       </c>
@@ -1879,7 +2166,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>44469</v>
       </c>
@@ -1887,7 +2174,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44561</v>
       </c>
@@ -1895,7 +2182,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44651</v>
       </c>
@@ -1903,7 +2190,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44742</v>
       </c>
@@ -1911,7 +2198,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44834</v>
       </c>
@@ -1919,7 +2206,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44925</v>
       </c>
@@ -1933,19 +2220,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1953,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>40939</v>
       </c>
@@ -1961,7 +2248,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>40968</v>
       </c>
@@ -1969,7 +2256,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>40998</v>
       </c>
@@ -1977,7 +2264,7 @@
         <v>20.58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>41029</v>
       </c>
@@ -1985,7 +2272,7 @@
         <v>20.239999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>41060</v>
       </c>
@@ -1993,7 +2280,7 @@
         <v>24.76</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>41089</v>
       </c>
@@ -2001,7 +2288,7 @@
         <v>21.96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>41121</v>
       </c>
@@ -2009,7 +2296,7 @@
         <v>19.010000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>41152</v>
       </c>
@@ -2017,7 +2304,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>41180</v>
       </c>
@@ -2025,7 +2312,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>41213</v>
       </c>
@@ -2033,7 +2320,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>41243</v>
       </c>
@@ -2041,7 +2328,7 @@
         <v>14.97</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>41274</v>
       </c>
@@ -2049,7 +2336,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>41305</v>
       </c>
@@ -2057,7 +2344,7 @@
         <v>14.62</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>41333</v>
       </c>
@@ -2065,7 +2352,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>41362</v>
       </c>
@@ -2073,7 +2360,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>41394</v>
       </c>
@@ -2081,7 +2368,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>41425</v>
       </c>
@@ -2089,7 +2376,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>41453</v>
       </c>
@@ -2097,7 +2384,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>41486</v>
       </c>
@@ -2105,7 +2392,7 @@
         <v>18.989999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>41516</v>
       </c>
@@ -2113,7 +2400,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>41547</v>
       </c>
@@ -2121,7 +2408,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>41578</v>
       </c>
@@ -2129,7 +2416,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>41607</v>
       </c>
@@ -2137,7 +2424,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>41639</v>
       </c>
@@ -2145,7 +2432,7 @@
         <v>16.920000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>41670</v>
       </c>
@@ -2153,7 +2440,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>41698</v>
       </c>
@@ -2161,7 +2448,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>41729</v>
       </c>
@@ -2169,7 +2456,7 @@
         <v>16.73</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>41759</v>
       </c>
@@ -2177,7 +2464,7 @@
         <v>15.87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>41789</v>
       </c>
@@ -2185,7 +2472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>41820</v>
       </c>
@@ -2193,7 +2480,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>41851</v>
       </c>
@@ -2201,7 +2488,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>41880</v>
       </c>
@@ -2209,7 +2496,7 @@
         <v>15.51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>41912</v>
       </c>
@@ -2217,7 +2504,7 @@
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>41943</v>
       </c>
@@ -2225,7 +2512,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>41971</v>
       </c>
@@ -2233,7 +2520,7 @@
         <v>19.43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>42004</v>
       </c>
@@ -2241,7 +2528,7 @@
         <v>22.16</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>42034</v>
       </c>
@@ -2249,7 +2536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>42062</v>
       </c>
@@ -2257,7 +2544,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>42094</v>
       </c>
@@ -2265,7 +2552,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>42124</v>
       </c>
@@ -2273,7 +2560,7 @@
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>42153</v>
       </c>
@@ -2281,7 +2568,7 @@
         <v>18.21</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42185</v>
       </c>
@@ -2289,7 +2576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42216</v>
       </c>
@@ -2297,7 +2584,7 @@
         <v>17.18</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>42247</v>
       </c>
@@ -2305,7 +2592,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42277</v>
       </c>
@@ -2313,7 +2600,7 @@
         <v>22.45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42307</v>
       </c>
@@ -2321,7 +2608,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>42338</v>
       </c>
@@ -2329,7 +2616,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>42369</v>
       </c>
@@ -2337,7 +2624,7 @@
         <v>22.14</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>42398</v>
       </c>
@@ -2345,7 +2632,7 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>42429</v>
       </c>
@@ -2353,7 +2640,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>42460</v>
       </c>
@@ -2361,7 +2648,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>42489</v>
       </c>
@@ -2369,7 +2656,7 @@
         <v>21.02</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>42521</v>
       </c>
@@ -2377,7 +2664,7 @@
         <v>21.23</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>42551</v>
       </c>
@@ -2385,7 +2672,7 @@
         <v>22.52</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>42580</v>
       </c>
@@ -2393,7 +2680,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>42613</v>
       </c>
@@ -2401,7 +2688,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>42643</v>
       </c>
@@ -2409,7 +2696,7 @@
         <v>19.14</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>42674</v>
       </c>
@@ -2417,7 +2704,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>42704</v>
       </c>
@@ -2425,7 +2712,7 @@
         <v>21.46</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>42734</v>
       </c>
@@ -2433,7 +2720,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42766</v>
       </c>
@@ -2441,7 +2728,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42794</v>
       </c>
@@ -2449,7 +2736,7 @@
         <v>17.96</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42825</v>
       </c>
@@ -2457,7 +2744,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42853</v>
       </c>
@@ -2465,7 +2752,7 @@
         <v>14.46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42886</v>
       </c>
@@ -2473,7 +2760,7 @@
         <v>14.47</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42916</v>
       </c>
@@ -2481,7 +2768,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42947</v>
       </c>
@@ -2489,7 +2776,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42978</v>
       </c>
@@ -2497,7 +2784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>43007</v>
       </c>
@@ -2505,7 +2792,7 @@
         <v>14.36</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>43039</v>
       </c>
@@ -2513,7 +2800,7 @@
         <v>13.89</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>43069</v>
       </c>
@@ -2521,7 +2808,7 @@
         <v>14.24</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>43098</v>
       </c>
@@ -2529,7 +2816,7 @@
         <v>14.92</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>43131</v>
       </c>
@@ -2537,7 +2824,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>43159</v>
       </c>
@@ -2545,7 +2832,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>43189</v>
       </c>
@@ -2553,7 +2840,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>43220</v>
       </c>
@@ -2561,7 +2848,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>43251</v>
       </c>
@@ -2569,7 +2856,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>43280</v>
       </c>
@@ -2577,7 +2864,7 @@
         <v>17.170000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>43312</v>
       </c>
@@ -2585,7 +2872,7 @@
         <v>16.79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>43343</v>
       </c>
@@ -2593,7 +2880,7 @@
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>43371</v>
       </c>
@@ -2601,7 +2888,7 @@
         <v>18.059999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>43404</v>
       </c>
@@ -2609,7 +2896,7 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>43434</v>
       </c>
@@ -2617,7 +2904,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>43465</v>
       </c>
@@ -2625,7 +2912,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>43496</v>
       </c>
@@ -2633,7 +2920,7 @@
         <v>21.02</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>43524</v>
       </c>
@@ -2641,7 +2928,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>43553</v>
       </c>
@@ -2649,7 +2936,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>43585</v>
       </c>
@@ -2657,7 +2944,7 @@
         <v>17.91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>43616</v>
       </c>
@@ -2665,7 +2952,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>43644</v>
       </c>
@@ -2673,7 +2960,7 @@
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>43677</v>
       </c>
@@ -2681,7 +2968,7 @@
         <v>16.36</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>43707</v>
       </c>
@@ -2689,7 +2976,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>43738</v>
       </c>
@@ -2697,7 +2984,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>43769</v>
       </c>
@@ -2705,7 +2992,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>43798</v>
       </c>
@@ -2713,7 +3000,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>43830</v>
       </c>
@@ -2721,7 +3008,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>43861</v>
       </c>
@@ -2729,7 +3016,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>43889</v>
       </c>
@@ -2737,7 +3024,7 @@
         <v>19.420000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>43921</v>
       </c>
@@ -2745,7 +3032,7 @@
         <v>37.93</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>43951</v>
       </c>
@@ -2753,7 +3040,7 @@
         <v>30.39</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>43980</v>
       </c>
@@ -2761,7 +3048,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>44012</v>
       </c>
@@ -2769,7 +3056,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>44043</v>
       </c>
@@ -2777,7 +3064,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>44074</v>
       </c>
@@ -2785,7 +3072,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>44104</v>
       </c>
@@ -2793,7 +3080,7 @@
         <v>24.92</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>44134</v>
       </c>
@@ -2801,7 +3088,7 @@
         <v>25.65</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>44165</v>
       </c>
@@ -2809,7 +3096,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>44196</v>
       </c>
@@ -2817,7 +3104,7 @@
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>44225</v>
       </c>
@@ -2825,7 +3112,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>44253</v>
       </c>
@@ -2833,7 +3120,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>44286</v>
       </c>
@@ -2841,7 +3128,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>44316</v>
       </c>
@@ -2849,7 +3136,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>44347</v>
       </c>
@@ -2857,7 +3144,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>44377</v>
       </c>
@@ -2865,7 +3152,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>44407</v>
       </c>
@@ -2873,7 +3160,7 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>44439</v>
       </c>
@@ -2881,7 +3168,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>44469</v>
       </c>
@@ -2889,7 +3176,7 @@
         <v>22.59</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>44498</v>
       </c>
@@ -2897,7 +3184,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>44530</v>
       </c>
@@ -2905,7 +3192,7 @@
         <v>19.239999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>44561</v>
       </c>
@@ -2913,7 +3200,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>44592</v>
       </c>
@@ -2921,7 +3208,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>44620</v>
       </c>
@@ -2929,7 +3216,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>44651</v>
       </c>
@@ -2937,7 +3224,7 @@
         <v>22.55</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>44680</v>
       </c>
@@ -2945,7 +3232,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>44712</v>
       </c>
@@ -2953,7 +3240,7 @@
         <v>23.48</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>44742</v>
       </c>
@@ -2961,7 +3248,7 @@
         <v>26.58</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44771</v>
       </c>
@@ -2969,7 +3256,7 @@
         <v>25.74</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44804</v>
       </c>
@@ -2977,7 +3264,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44834</v>
       </c>
@@ -2985,7 +3272,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44865</v>
       </c>
@@ -2993,7 +3280,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44895</v>
       </c>
@@ -3001,7 +3288,7 @@
         <v>22.37</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44925</v>
       </c>
@@ -3015,20 +3302,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3036,7 +3323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>40998</v>
       </c>
@@ -3044,7 +3331,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>41089</v>
       </c>
@@ -3052,7 +3339,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>41180</v>
       </c>
@@ -3060,7 +3347,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>41274</v>
       </c>
@@ -3068,7 +3355,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>41362</v>
       </c>
@@ -3076,7 +3363,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>41453</v>
       </c>
@@ -3084,7 +3371,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>41547</v>
       </c>
@@ -3092,7 +3379,7 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>41639</v>
       </c>
@@ -3100,7 +3387,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>41729</v>
       </c>
@@ -3108,7 +3395,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>41820</v>
       </c>
@@ -3116,7 +3403,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>41912</v>
       </c>
@@ -3124,7 +3411,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>42004</v>
       </c>
@@ -3132,7 +3419,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>42094</v>
       </c>
@@ -3140,7 +3427,7 @@
         <v>66.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>42185</v>
       </c>
@@ -3148,7 +3435,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>42277</v>
       </c>
@@ -3156,7 +3443,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>42369</v>
       </c>
@@ -3164,7 +3451,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>42460</v>
       </c>
@@ -3172,7 +3459,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>42551</v>
       </c>
@@ -3180,7 +3467,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>42643</v>
       </c>
@@ -3188,7 +3475,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>42734</v>
       </c>
@@ -3196,7 +3483,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>42825</v>
       </c>
@@ -3204,7 +3491,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>42916</v>
       </c>
@@ -3212,7 +3499,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43007</v>
       </c>
@@ -3220,7 +3507,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43098</v>
       </c>
@@ -3228,7 +3515,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43189</v>
       </c>
@@ -3236,7 +3523,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>43280</v>
       </c>
@@ -3244,7 +3531,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>43371</v>
       </c>
@@ -3252,7 +3539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>43465</v>
       </c>
@@ -3260,7 +3547,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>43553</v>
       </c>
@@ -3268,7 +3555,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43644</v>
       </c>
@@ -3276,7 +3563,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43738</v>
       </c>
@@ -3284,7 +3571,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43830</v>
       </c>
@@ -3292,7 +3579,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43921</v>
       </c>
@@ -3300,7 +3587,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44012</v>
       </c>
@@ -3308,7 +3595,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44104</v>
       </c>
@@ -3316,7 +3603,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>44196</v>
       </c>
@@ -3324,7 +3611,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>44286</v>
       </c>
@@ -3332,7 +3619,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>44377</v>
       </c>
@@ -3340,7 +3627,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>44469</v>
       </c>
@@ -3348,7 +3635,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44561</v>
       </c>
@@ -3356,7 +3643,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44651</v>
       </c>
@@ -3364,7 +3651,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44742</v>
       </c>
@@ -3372,7 +3659,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44834</v>
       </c>
@@ -3380,7 +3667,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44925</v>
       </c>
@@ -3391,10 +3678,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{70c52299-74de-4dfd-b117-c9c408edfa50}" enabled="1" method="Standard" siteId="{853cbaab-a620-4178-8933-88d76414184a}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>